--- a/biology/Botanique/Parvocaulis/Parvocaulis.xlsx
+++ b/biology/Botanique/Parvocaulis/Parvocaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parvocaulis est un genre d'algues vertes unicellulaires de la famille des Polyphysaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 mars 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 mars 2016) :
 Parvocaulis clavatus (Yamada) S.Berger, U.Fettweiss, S.Gleissberg, L.B.Liddle, U.Richter, H.Sawitzky &amp; G.C.Zuccarello
 Parvocaulis exiguus (Solms-Laubach) S.Berger, Fettweiss, Gleissberg, Liddle, U.Richter, Sawitzky &amp; Zuccarello
 Parvocaulis myriosporus (A.B.Joly &amp; Cordeiro-Marina) C.W.Nascimento Moura &amp; J.C.DeAndrade
@@ -547,7 +561,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Autre genre de la famille des Polyphysaceae : Acetabularia (les acétabulaires).
 </t>
